--- a/library/Library_hbrown_10.29.19.xlsx
+++ b/library/Library_hbrown_10.29.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="57">
   <si>
     <t xml:space="preserve">s2cDNADate</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">TGTGAGGT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">TACATGG</t>
@@ -136,97 +136,49 @@
     <t xml:space="preserve">ATGTTCT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7761</t>
-  </si>
-  <si>
     <t xml:space="preserve">GTAAAAA</t>
   </si>
   <si>
-    <t xml:space="preserve">E7762</t>
-  </si>
-  <si>
     <t xml:space="preserve">GTCTGAT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7763</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAATATC</t>
   </si>
   <si>
-    <t xml:space="preserve">E7764</t>
-  </si>
-  <si>
     <t xml:space="preserve">CTCCCGA</t>
   </si>
   <si>
-    <t xml:space="preserve">E7765</t>
-  </si>
-  <si>
     <t xml:space="preserve">GCCGTTT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7766</t>
-  </si>
-  <si>
     <t xml:space="preserve">TAGGTAA</t>
   </si>
   <si>
-    <t xml:space="preserve">E7767</t>
-  </si>
-  <si>
     <t xml:space="preserve">TCGAGAT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7768</t>
-  </si>
-  <si>
     <t xml:space="preserve">CATTTAG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7769</t>
-  </si>
-  <si>
     <t xml:space="preserve">TCCGGGA</t>
   </si>
   <si>
-    <t xml:space="preserve">E7770</t>
-  </si>
-  <si>
     <t xml:space="preserve">CGAAAGT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7771</t>
-  </si>
-  <si>
     <t xml:space="preserve">GCCTCCC</t>
   </si>
   <si>
-    <t xml:space="preserve">E7772</t>
-  </si>
-  <si>
     <t xml:space="preserve">AGTTATG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7773</t>
-  </si>
-  <si>
     <t xml:space="preserve">CTGCAAT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7774</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAAGCCG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7775</t>
-  </si>
-  <si>
     <t xml:space="preserve">GGGTCAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7776</t>
   </si>
   <si>
     <t xml:space="preserve">GCAACGC</t>
@@ -249,7 +201,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -283,6 +235,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -328,7 +287,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -347,6 +306,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -372,8 +335,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -464,10 +427,11 @@
       <c r="J2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="5" t="b">
+      <c r="K2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -516,10 +480,11 @@
       <c r="J3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="5" t="b">
+      <c r="K3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -554,10 +519,11 @@
       <c r="J4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="5" t="b">
+      <c r="K4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -592,10 +558,11 @@
       <c r="J5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="5" t="b">
+      <c r="K5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -630,10 +597,11 @@
       <c r="J6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="5" t="b">
+      <c r="K6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -668,10 +636,11 @@
       <c r="J7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="5" t="b">
+      <c r="K7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -706,10 +675,11 @@
       <c r="J8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="5" t="b">
+      <c r="K8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -744,10 +714,11 @@
       <c r="J9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="5" t="b">
+      <c r="K9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -782,10 +753,11 @@
       <c r="J10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="5" t="b">
+      <c r="K10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -820,10 +792,11 @@
       <c r="J11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="5" t="b">
+      <c r="K11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -858,10 +831,11 @@
       <c r="J12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="5" t="b">
+      <c r="K12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -896,10 +870,11 @@
       <c r="J13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="5" t="b">
+      <c r="K13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -934,10 +909,11 @@
       <c r="J14" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="5" t="b">
+      <c r="K14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -972,10 +948,11 @@
       <c r="J15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="5" t="b">
+      <c r="K15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1010,10 +987,11 @@
       <c r="J16" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="5" t="b">
+      <c r="K16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1048,10 +1026,11 @@
       <c r="J17" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="5" t="b">
+      <c r="K17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1086,10 +1065,11 @@
       <c r="J18" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="5" t="b">
+      <c r="K18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1124,10 +1104,11 @@
       <c r="J19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="5" t="b">
+      <c r="K19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1162,10 +1143,11 @@
       <c r="J20" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="5" t="b">
+      <c r="K20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1200,10 +1182,11 @@
       <c r="J21" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="5" t="b">
+      <c r="K21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1238,10 +1221,11 @@
       <c r="J22" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" s="5" t="b">
+      <c r="K22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1268,7 +1252,7 @@
         <v>48</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>15</v>
@@ -1276,10 +1260,11 @@
       <c r="J23" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="5" t="b">
+      <c r="K23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1306,7 +1291,7 @@
         <v>49</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>15</v>
@@ -1314,10 +1299,11 @@
       <c r="J24" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" s="5" t="b">
+      <c r="K24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1344,7 +1330,7 @@
         <v>50</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>15</v>
@@ -1352,10 +1338,11 @@
       <c r="J25" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="5" t="b">
+      <c r="K25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1382,7 +1369,7 @@
         <v>51</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>15</v>
@@ -1390,10 +1377,11 @@
       <c r="J26" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="5" t="b">
+      <c r="K26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1420,7 +1408,7 @@
         <v>52</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>15</v>
@@ -1428,10 +1416,11 @@
       <c r="J27" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="5" t="b">
+      <c r="K27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1458,7 +1447,7 @@
         <v>53</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>15</v>
@@ -1466,10 +1455,11 @@
       <c r="J28" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28" s="5" t="b">
+      <c r="K28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1496,7 +1486,7 @@
         <v>54</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>15</v>
@@ -1504,10 +1494,11 @@
       <c r="J29" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" s="5" t="b">
+      <c r="K29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1534,7 +1525,7 @@
         <v>55</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>15</v>
@@ -1542,10 +1533,11 @@
       <c r="J30" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L30" s="5" t="b">
+      <c r="K30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1572,7 +1564,7 @@
         <v>56</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>15</v>
@@ -1580,10 +1572,11 @@
       <c r="J31" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L31" s="5" t="b">
+      <c r="K31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1610,7 +1603,7 @@
         <v>57</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>15</v>
@@ -1618,10 +1611,11 @@
       <c r="J32" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="5" t="b">
+      <c r="K32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1648,7 +1642,7 @@
         <v>58</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>15</v>
@@ -1656,10 +1650,11 @@
       <c r="J33" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33" s="5" t="b">
+      <c r="K33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1686,7 +1681,7 @@
         <v>59</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>15</v>
@@ -1694,10 +1689,11 @@
       <c r="J34" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L34" s="5" t="b">
+      <c r="K34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1724,7 +1720,7 @@
         <v>60</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>15</v>
@@ -1732,10 +1728,11 @@
       <c r="J35" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L35" s="5" t="b">
+      <c r="K35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1762,7 +1759,7 @@
         <v>61</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>15</v>
@@ -1770,10 +1767,11 @@
       <c r="J36" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="L36" s="5" t="b">
+      <c r="K36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1800,7 +1798,7 @@
         <v>62</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>15</v>
@@ -1808,10 +1806,11 @@
       <c r="J37" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K37" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L37" s="5" t="b">
+      <c r="K37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1838,7 +1837,7 @@
         <v>63</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>15</v>
@@ -1846,10 +1845,11 @@
       <c r="J38" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L38" s="5" t="b">
+      <c r="K38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
         <v>64</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>15</v>
@@ -1884,10 +1884,11 @@
       <c r="J39" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L39" s="5" t="b">
+      <c r="K39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1914,7 +1915,7 @@
         <v>65</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>15</v>
@@ -1922,10 +1923,11 @@
       <c r="J40" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L40" s="5" t="b">
+      <c r="K40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1952,7 +1954,7 @@
         <v>66</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>15</v>
@@ -1960,10 +1962,11 @@
       <c r="J41" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K41" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L41" s="5" t="b">
+      <c r="K41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/library/Library_hbrown_10.29.19.xlsx
+++ b/library/Library_hbrown_10.29.19.xlsx
@@ -335,8 +335,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -430,8 +430,7 @@
       <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -483,8 +482,7 @@
       <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L3" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -522,8 +520,7 @@
       <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L4" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -561,8 +558,7 @@
       <c r="K5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L5" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -600,8 +596,7 @@
       <c r="K6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L6" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -639,8 +634,7 @@
       <c r="K7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L7" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -678,8 +672,7 @@
       <c r="K8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L8" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -717,8 +710,7 @@
       <c r="K9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L9" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -756,8 +748,7 @@
       <c r="K10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L10" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -795,8 +786,7 @@
       <c r="K11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L11" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -834,8 +824,7 @@
       <c r="K12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L12" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -873,8 +862,7 @@
       <c r="K13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L13" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -912,8 +900,7 @@
       <c r="K14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L14" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -951,8 +938,7 @@
       <c r="K15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L15" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -990,8 +976,7 @@
       <c r="K16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L16" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1029,8 +1014,7 @@
       <c r="K17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L17" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1068,8 +1052,7 @@
       <c r="K18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L18" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1107,8 +1090,7 @@
       <c r="K19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L19" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1146,8 +1128,7 @@
       <c r="K20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L20" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1185,8 +1166,7 @@
       <c r="K21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L21" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1224,8 +1204,7 @@
       <c r="K22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L22" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1263,8 +1242,7 @@
       <c r="K23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L23" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1302,8 +1280,7 @@
       <c r="K24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L24" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1341,8 +1318,7 @@
       <c r="K25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L25" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1380,8 +1356,7 @@
       <c r="K26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L26" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1419,8 +1394,7 @@
       <c r="K27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L27" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1458,8 +1432,7 @@
       <c r="K28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L28" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1497,8 +1470,7 @@
       <c r="K29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L29" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1536,8 +1508,7 @@
       <c r="K30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L30" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1575,8 +1546,7 @@
       <c r="K31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L31" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1614,8 +1584,7 @@
       <c r="K32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L32" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L32" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1653,8 +1622,7 @@
       <c r="K33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L33" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1692,8 +1660,7 @@
       <c r="K34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L34" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1731,8 +1698,7 @@
       <c r="K35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L35" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L35" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1770,8 +1736,7 @@
       <c r="K36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L36" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1809,8 +1774,7 @@
       <c r="K37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L37" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L37" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1848,8 +1812,7 @@
       <c r="K38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L38" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1887,8 +1850,7 @@
       <c r="K39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L39" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1926,8 +1888,7 @@
       <c r="K40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L40" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L40" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1965,8 +1926,7 @@
       <c r="K41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L41" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L41" s="6" t="b">
         <v>0</v>
       </c>
     </row>

--- a/library/Library_hbrown_10.29.19.xlsx
+++ b/library/Library_hbrown_10.29.19.xlsx
@@ -73,7 +73,7 @@
     <t xml:space="preserve">TGTGAGGT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">TACATGG</t>
@@ -335,8 +335,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -430,7 +430,8 @@
       <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6" t="b">
+      <c r="L2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -482,7 +483,8 @@
       <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="6" t="b">
+      <c r="L3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -520,7 +522,8 @@
       <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="6" t="b">
+      <c r="L4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -558,7 +561,8 @@
       <c r="K5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="6" t="b">
+      <c r="L5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -596,7 +600,8 @@
       <c r="K6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="6" t="b">
+      <c r="L6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -634,7 +639,8 @@
       <c r="K7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="6" t="b">
+      <c r="L7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -672,7 +678,8 @@
       <c r="K8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="6" t="b">
+      <c r="L8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -710,7 +717,8 @@
       <c r="K9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="6" t="b">
+      <c r="L9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -748,7 +756,8 @@
       <c r="K10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="6" t="b">
+      <c r="L10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -786,7 +795,8 @@
       <c r="K11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="6" t="b">
+      <c r="L11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -824,7 +834,8 @@
       <c r="K12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="6" t="b">
+      <c r="L12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -862,7 +873,8 @@
       <c r="K13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="6" t="b">
+      <c r="L13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -900,7 +912,8 @@
       <c r="K14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="6" t="b">
+      <c r="L14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -938,7 +951,8 @@
       <c r="K15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="6" t="b">
+      <c r="L15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -976,7 +990,8 @@
       <c r="K16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="6" t="b">
+      <c r="L16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1014,7 +1029,8 @@
       <c r="K17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="6" t="b">
+      <c r="L17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1052,7 +1068,8 @@
       <c r="K18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="6" t="b">
+      <c r="L18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1090,7 +1107,8 @@
       <c r="K19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="6" t="b">
+      <c r="L19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1128,7 +1146,8 @@
       <c r="K20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="6" t="b">
+      <c r="L20" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1166,7 +1185,8 @@
       <c r="K21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="6" t="b">
+      <c r="L21" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1204,7 +1224,8 @@
       <c r="K22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="6" t="b">
+      <c r="L22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1242,7 +1263,8 @@
       <c r="K23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="6" t="b">
+      <c r="L23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1280,7 +1302,8 @@
       <c r="K24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="6" t="b">
+      <c r="L24" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1318,7 +1341,8 @@
       <c r="K25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="6" t="b">
+      <c r="L25" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1356,7 +1380,8 @@
       <c r="K26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="6" t="b">
+      <c r="L26" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1394,7 +1419,8 @@
       <c r="K27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="6" t="b">
+      <c r="L27" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1432,7 +1458,8 @@
       <c r="K28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="6" t="b">
+      <c r="L28" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1470,7 +1497,8 @@
       <c r="K29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="6" t="b">
+      <c r="L29" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1508,7 +1536,8 @@
       <c r="K30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="6" t="b">
+      <c r="L30" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1546,7 +1575,8 @@
       <c r="K31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="6" t="b">
+      <c r="L31" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1584,7 +1614,8 @@
       <c r="K32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L32" s="6" t="b">
+      <c r="L32" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1622,7 +1653,8 @@
       <c r="K33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="6" t="b">
+      <c r="L33" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1660,7 +1692,8 @@
       <c r="K34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="6" t="b">
+      <c r="L34" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1698,7 +1731,8 @@
       <c r="K35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L35" s="6" t="b">
+      <c r="L35" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1736,7 +1770,8 @@
       <c r="K36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="6" t="b">
+      <c r="L36" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1774,7 +1809,8 @@
       <c r="K37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L37" s="6" t="b">
+      <c r="L37" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1812,7 +1848,8 @@
       <c r="K38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="6" t="b">
+      <c r="L38" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1850,7 +1887,8 @@
       <c r="K39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="6" t="b">
+      <c r="L39" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1888,7 +1926,8 @@
       <c r="K40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L40" s="6" t="b">
+      <c r="L40" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1926,7 +1965,8 @@
       <c r="K41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L41" s="6" t="b">
+      <c r="L41" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
